--- a/data/trans_orig/P62-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14079D24-5080-4CBD-820F-0E5D5C5FFA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6531B8-F8F7-42AF-AD17-8905F4DB7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0D165F84-964F-4789-8994-78407EDA8220}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A70E009-FCCC-439F-B7FB-C6CA24748A81}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -77,1849 +77,1855 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>29,18%</t>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>55,57%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>60,39%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,94%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,38%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>52,98%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,88%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
   </si>
   <si>
     <t>59,26%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>75,88%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
-  </si>
-  <si>
-    <t>58,15%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>56,64%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>59,16%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
+    <t>62,89%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>47,34%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2337,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D5CD9D-1AC0-4430-A5BB-94D917B7886D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D145FD1-94E3-41A0-ACDB-93D0C222C0FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3227,7 +3233,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>63215</v>
+        <v>63214</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3329,7 +3335,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="7">
-        <v>113734</v>
+        <v>113733</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3403,10 +3409,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -3415,13 +3421,13 @@
         <v>261755</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3442,13 @@
         <v>135438</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>336</v>
@@ -3451,13 +3457,13 @@
         <v>337671</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>470</v>
@@ -3466,13 +3472,13 @@
         <v>473109</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,7 +3534,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3540,13 +3546,13 @@
         <v>168143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -3555,13 +3561,13 @@
         <v>128654</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>290</v>
@@ -3570,13 +3576,13 @@
         <v>296797</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3597,13 @@
         <v>105018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>396</v>
@@ -3606,13 +3612,13 @@
         <v>414334</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -3621,13 +3627,13 @@
         <v>519352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3701,13 @@
         <v>741679</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>558</v>
@@ -3710,13 +3716,13 @@
         <v>578130</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1318</v>
@@ -3725,13 +3731,13 @@
         <v>1319809</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3752,13 @@
         <v>617664</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1750</v>
@@ -3761,13 +3767,13 @@
         <v>1768410</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2368</v>
@@ -3776,13 +3782,13 @@
         <v>2386075</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,7 +3844,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3862,7 +3868,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D541159-54BF-402C-A839-99B7F03D4FFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7FFE38-681F-4B09-AE24-FCC7F8A4E59A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3879,7 +3885,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,39 +3990,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,39 +4035,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,39 +4080,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4129,13 @@
         <v>132346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -4138,13 +4144,13 @@
         <v>89844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>198</v>
@@ -4153,13 +4159,13 @@
         <v>222190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4180,13 @@
         <v>196928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -4189,13 +4195,13 @@
         <v>303741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -4204,13 +4210,13 @@
         <v>500670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4284,13 @@
         <v>82244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -4293,13 +4299,13 @@
         <v>75561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -4308,13 +4314,13 @@
         <v>157805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4335,13 @@
         <v>97654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -4344,13 +4350,13 @@
         <v>181042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4359,13 +4365,13 @@
         <v>278696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4439,13 @@
         <v>178464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -4448,13 +4454,13 @@
         <v>170690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -4463,13 +4469,13 @@
         <v>349155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4484,13 +4490,13 @@
         <v>216902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7">
         <v>276</v>
@@ -4499,13 +4505,13 @@
         <v>297965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -4514,13 +4520,13 @@
         <v>514867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4594,13 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4603,13 +4609,13 @@
         <v>47020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4618,13 +4624,13 @@
         <v>96973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4645,13 @@
         <v>79308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4654,13 +4660,13 @@
         <v>115860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -4669,13 +4675,13 @@
         <v>195169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +4749,13 @@
         <v>74321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>33</v>
+        <v>257</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4758,13 +4764,13 @@
         <v>60108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4773,13 +4779,13 @@
         <v>134429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4800,13 @@
         <v>80357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4809,13 +4815,13 @@
         <v>164631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -4824,13 +4830,13 @@
         <v>244988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +4904,13 @@
         <v>160207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4913,13 +4919,13 @@
         <v>150141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -4928,13 +4934,13 @@
         <v>310349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4955,13 @@
         <v>221977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4964,13 +4970,13 @@
         <v>356693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -4979,13 +4985,13 @@
         <v>578670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,7 +5047,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5053,13 +5059,13 @@
         <v>194684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -5068,13 +5074,13 @@
         <v>154854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -5083,13 +5089,13 @@
         <v>349537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5104,13 +5110,13 @@
         <v>216066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>376</v>
@@ -5119,13 +5125,13 @@
         <v>405388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>579</v>
@@ -5134,13 +5140,13 @@
         <v>621455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5214,13 @@
         <v>872220</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>689</v>
@@ -5223,13 +5229,13 @@
         <v>748218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M28" s="7">
         <v>1476</v>
@@ -5238,13 +5244,13 @@
         <v>1620438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5265,13 @@
         <v>1109193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>1699</v>
@@ -5274,13 +5280,13 @@
         <v>1825320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M29" s="7">
         <v>2764</v>
@@ -5289,13 +5295,13 @@
         <v>2934514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5357,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5375,7 +5381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85636035-6453-4D0D-A4CC-83A3BA0FEFEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4F75E3-8060-4FB3-A03D-0C0CA47B0D3F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5398,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5505,13 @@
         <v>59244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -5514,13 +5520,13 @@
         <v>54975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -5529,13 +5535,13 @@
         <v>114219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>134</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,13 +5556,13 @@
         <v>97557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5565,13 +5571,13 @@
         <v>128214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -5580,13 +5586,13 @@
         <v>225771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5660,13 @@
         <v>148570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5669,13 +5675,13 @@
         <v>92618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5684,13 +5690,13 @@
         <v>241188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5711,13 @@
         <v>178895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -5720,13 +5726,13 @@
         <v>315547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -5735,13 +5741,13 @@
         <v>494442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5815,13 @@
         <v>89941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5824,13 +5830,13 @@
         <v>79895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>134</v>
+        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5839,13 +5845,13 @@
         <v>169837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5866,13 @@
         <v>96039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -5875,13 +5881,13 @@
         <v>165859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>379</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -5890,13 +5896,13 @@
         <v>261897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5970,13 @@
         <v>96554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>384</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>385</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5979,13 +5985,13 @@
         <v>81420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -5994,13 +6000,13 @@
         <v>177974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6021,13 @@
         <v>155432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>393</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6030,13 +6036,13 @@
         <v>217908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -6045,13 +6051,13 @@
         <v>373340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6125,13 @@
         <v>66718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -6134,13 +6140,13 @@
         <v>57197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -6149,13 +6155,13 @@
         <v>123915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6176,13 @@
         <v>63573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6185,13 +6191,13 @@
         <v>104973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6200,13 +6206,13 @@
         <v>168546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6280,13 @@
         <v>73938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>303</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -6289,13 +6295,13 @@
         <v>44294</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -6304,13 +6310,13 @@
         <v>118232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6331,13 @@
         <v>81683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>295</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -6340,13 +6346,13 @@
         <v>148587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -6355,13 +6361,13 @@
         <v>230269</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6435,13 @@
         <v>153678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -6444,13 +6450,13 @@
         <v>152699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>56</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>273</v>
@@ -6459,13 +6465,13 @@
         <v>306376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6486,13 @@
         <v>139546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -6495,13 +6501,13 @@
         <v>244320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>64</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>354</v>
@@ -6510,13 +6516,13 @@
         <v>383866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6578,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6584,13 +6590,13 @@
         <v>213582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6599,13 +6605,13 @@
         <v>178924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -6614,13 +6620,13 @@
         <v>392506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6641,13 @@
         <v>231367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -6650,13 +6656,13 @@
         <v>390847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -6665,13 +6671,13 @@
         <v>622214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6745,13 @@
         <v>902225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
         <v>639</v>
@@ -6754,13 +6760,13 @@
         <v>742021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>390</v>
       </c>
       <c r="M28" s="7">
         <v>1542</v>
@@ -6769,13 +6775,13 @@
         <v>1644246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6796,13 @@
         <v>1044091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>1640</v>
@@ -6805,28 +6811,28 @@
         <v>1716255</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
         <v>2621</v>
       </c>
       <c r="N29" s="7">
-        <v>2760346</v>
+        <v>2760347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6874,7 @@
         <v>4163</v>
       </c>
       <c r="N30" s="7">
-        <v>4404592</v>
+        <v>4404593</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6882,7 +6888,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +6912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020889C4-2ADC-4583-B218-1F6D68116E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C45A9-6692-44DD-8106-94AA4768B0AF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6929,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7030,13 +7036,13 @@
         <v>22205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7045,13 +7051,13 @@
         <v>30373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>488</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -7060,13 +7066,13 @@
         <v>52578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,13 +7087,13 @@
         <v>73953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -7096,13 +7102,13 @@
         <v>106140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -7111,13 +7117,13 @@
         <v>180093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7191,13 @@
         <v>143083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -7200,13 +7206,13 @@
         <v>132851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="M7" s="7">
         <v>335</v>
@@ -7215,13 +7221,13 @@
         <v>275934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7242,13 @@
         <v>126101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>213</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
@@ -7251,13 +7257,13 @@
         <v>235254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="M8" s="7">
         <v>369</v>
@@ -7266,13 +7272,13 @@
         <v>361354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7346,13 @@
         <v>96513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -7355,13 +7361,13 @@
         <v>90685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -7370,13 +7376,13 @@
         <v>187197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7397,13 @@
         <v>73546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -7406,13 +7412,13 @@
         <v>152917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -7421,13 +7427,13 @@
         <v>226464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7495,13 +7501,13 @@
         <v>83280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7510,13 +7516,13 @@
         <v>86157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -7525,13 +7531,13 @@
         <v>169436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>428</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7546,13 +7552,13 @@
         <v>64213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7561,13 +7567,13 @@
         <v>144815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>144</v>
       </c>
       <c r="M14" s="7">
         <v>266</v>
@@ -7576,13 +7582,13 @@
         <v>209028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>421</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7656,13 @@
         <v>34487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -7665,13 +7671,13 @@
         <v>45815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -7680,13 +7686,13 @@
         <v>80302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7707,13 @@
         <v>37234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -7716,13 +7722,13 @@
         <v>66612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>285</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -7731,13 +7737,13 @@
         <v>103846</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7811,13 @@
         <v>83818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
@@ -7820,13 +7826,13 @@
         <v>64277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
@@ -7835,13 +7841,13 @@
         <v>148095</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7862,13 @@
         <v>54736</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>572</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -7871,13 +7877,13 @@
         <v>118400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -7886,13 +7892,13 @@
         <v>173136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7960,13 +7966,13 @@
         <v>167012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>248</v>
@@ -7975,13 +7981,13 @@
         <v>268076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -7990,13 +7996,13 @@
         <v>435089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8011,13 +8017,13 @@
         <v>123705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="H23" s="7">
         <v>257</v>
@@ -8026,13 +8032,13 @@
         <v>203397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -8041,13 +8047,13 @@
         <v>327101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,7 +8109,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8115,13 +8121,13 @@
         <v>234671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>310</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -8130,13 +8136,13 @@
         <v>210106</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
@@ -8145,13 +8151,13 @@
         <v>444777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8166,13 +8172,13 @@
         <v>115442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
@@ -8181,13 +8187,13 @@
         <v>325355</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>142</v>
       </c>
       <c r="M26" s="7">
         <v>452</v>
@@ -8270,7 +8276,7 @@
         <v>865069</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>613</v>
@@ -8303,10 +8309,10 @@
         <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>532</v>
+        <v>619</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8321,13 +8327,13 @@
         <v>668929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="H29" s="7">
         <v>1869</v>
@@ -8336,13 +8342,13 @@
         <v>1352890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M29" s="7">
         <v>2423</v>
@@ -8351,13 +8357,13 @@
         <v>2021819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>628</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8413,7 +8419,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F6531B8-F8F7-42AF-AD17-8905F4DB7882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2340F995-5A15-431A-87B9-8367D96EDCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7A70E009-FCCC-439F-B7FB-C6CA24748A81}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93FD1E2E-141D-4112-A00A-DF33346BC1DB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>49,05%</t>
   </si>
   <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>58,39%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,95%</t>
   </si>
   <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>58,85%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>55,57%</t>
   </si>
   <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
   </si>
   <si>
     <t>21,71%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
   </si>
   <si>
     <t>34,44%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>44,43%</t>
   </si>
   <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
   </si>
   <si>
     <t>78,29%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
   </si>
   <si>
     <t>65,56%</t>
   </si>
   <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>52,93%</t>
   </si>
   <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>61,53%</t>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
   </si>
   <si>
     <t>27,6%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>37,04%</t>
   </si>
   <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>47,07%</t>
   </si>
   <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
   </si>
   <si>
     <t>72,4%</t>
   </si>
   <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
   </si>
   <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1618 +254,1594 @@
     <t>52,17%</t>
   </si>
   <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>39,87%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>58,32%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>55,77%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>34,7%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>45,28%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,42%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
     <t>43,54%</t>
   </si>
   <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
   </si>
   <si>
     <t>67,57%</t>
   </si>
   <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>44,94%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>60,31%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
   </si>
   <si>
     <t>51,92%</t>
   </si>
   <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
   </si>
   <si>
     <t>52,28%</t>
   </si>
   <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,38%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,55%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2015 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>58,82%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,88%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
     <t>27,87%</t>
   </si>
   <si>
     <t>39,96%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
   </si>
   <si>
     <t>56,95%</t>
@@ -2337,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D145FD1-94E3-41A0-ACDB-93D0C222C0FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F301FF-1F6E-41FB-861E-88A7CAA7E1F9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3868,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7FFE38-681F-4B09-AE24-FCC7F8A4E59A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC899B2-32A5-4337-93B5-EADD7EEA6871}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4144,13 +4120,13 @@
         <v>89844</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>198</v>
@@ -4159,13 +4135,13 @@
         <v>222190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4156,13 @@
         <v>196928</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -4195,13 +4171,13 @@
         <v>303741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -4210,13 +4186,13 @@
         <v>500670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>27</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4260,13 @@
         <v>82244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -4299,13 +4275,13 @@
         <v>75561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -4314,13 +4290,13 @@
         <v>157805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4311,13 @@
         <v>97654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -4350,13 +4326,13 @@
         <v>181042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4365,13 +4341,13 @@
         <v>278696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4439,13 +4415,13 @@
         <v>178464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -4454,13 +4430,13 @@
         <v>170690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -4469,13 +4445,13 @@
         <v>349155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4490,13 +4466,13 @@
         <v>216902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>276</v>
@@ -4505,13 +4481,13 @@
         <v>297965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -4520,13 +4496,13 @@
         <v>514867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4594,13 +4570,13 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4609,13 +4585,13 @@
         <v>47020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4624,13 +4600,13 @@
         <v>96973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4645,13 +4621,13 @@
         <v>79308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4660,13 +4636,13 @@
         <v>115860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -4675,13 +4651,13 @@
         <v>195169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4749,13 +4725,13 @@
         <v>74321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4764,13 +4740,13 @@
         <v>60108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4779,13 +4755,13 @@
         <v>134429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4800,13 +4776,13 @@
         <v>80357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4815,13 +4791,13 @@
         <v>164631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -4830,13 +4806,13 @@
         <v>244988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4880,13 @@
         <v>160207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4919,13 +4895,13 @@
         <v>150141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>186</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -4934,13 +4910,13 @@
         <v>310349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,13 +4931,13 @@
         <v>221977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4970,13 +4946,13 @@
         <v>356693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -4985,13 +4961,13 @@
         <v>578670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5035,13 @@
         <v>194684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -5074,13 +5050,13 @@
         <v>154854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -5089,13 +5065,13 @@
         <v>349537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5086,13 @@
         <v>216066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="H26" s="7">
         <v>376</v>
@@ -5125,13 +5101,13 @@
         <v>405388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="M26" s="7">
         <v>579</v>
@@ -5140,13 +5116,13 @@
         <v>621455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5190,13 @@
         <v>872220</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="H28" s="7">
         <v>689</v>
@@ -5229,13 +5205,13 @@
         <v>748218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>1476</v>
@@ -5244,13 +5220,13 @@
         <v>1620438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5241,13 @@
         <v>1109193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="H29" s="7">
         <v>1699</v>
@@ -5280,13 +5256,13 @@
         <v>1825320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M29" s="7">
         <v>2764</v>
@@ -5295,13 +5271,13 @@
         <v>2934514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B4F75E3-8060-4FB3-A03D-0C0CA47B0D3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71945B7-5F80-487F-AC65-ED2CA4F31AFD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5398,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5505,13 +5481,13 @@
         <v>59244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -5520,13 +5496,13 @@
         <v>54975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -5535,13 +5511,13 @@
         <v>114219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,13 +5532,13 @@
         <v>97557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5571,13 +5547,13 @@
         <v>128214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -5586,13 +5562,13 @@
         <v>225771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,13 +5636,13 @@
         <v>148570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5675,13 +5651,13 @@
         <v>92618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5690,13 +5666,13 @@
         <v>241188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,13 +5687,13 @@
         <v>178895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -5726,13 +5702,13 @@
         <v>315547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -5741,13 +5717,13 @@
         <v>494442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5791,13 @@
         <v>89941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5830,13 +5806,13 @@
         <v>79895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5845,13 +5821,13 @@
         <v>169837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5842,13 @@
         <v>96039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -5881,13 +5857,13 @@
         <v>165859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -5896,13 +5872,13 @@
         <v>261897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5946,13 @@
         <v>96554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5985,13 +5961,13 @@
         <v>81420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -6000,13 +5976,13 @@
         <v>177974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +5997,13 @@
         <v>155432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6036,13 +6012,13 @@
         <v>217908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -6051,13 +6027,13 @@
         <v>373340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6125,13 +6101,13 @@
         <v>66718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -6140,13 +6116,13 @@
         <v>57197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -6155,13 +6131,13 @@
         <v>123915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6176,13 +6152,13 @@
         <v>63573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6191,13 +6167,13 @@
         <v>104973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6206,13 +6182,13 @@
         <v>168546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6256,13 @@
         <v>73938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>303</v>
+        <v>400</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -6295,13 +6271,13 @@
         <v>44294</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -6310,13 +6286,13 @@
         <v>118232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6331,13 +6307,13 @@
         <v>81683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>409</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -6346,13 +6322,13 @@
         <v>148587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -6361,13 +6337,13 @@
         <v>230269</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6411,13 @@
         <v>153678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -6450,13 +6426,13 @@
         <v>152699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>273</v>
@@ -6465,13 +6441,13 @@
         <v>306376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6462,13 @@
         <v>139546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -6501,13 +6477,13 @@
         <v>244320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>354</v>
@@ -6516,13 +6492,13 @@
         <v>383866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>232</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6590,13 +6566,13 @@
         <v>213582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6605,13 +6581,13 @@
         <v>178924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>453</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -6620,13 +6596,13 @@
         <v>392506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6641,13 +6617,13 @@
         <v>231367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -6656,13 +6632,13 @@
         <v>390847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -6671,13 +6647,13 @@
         <v>622214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6745,13 +6721,13 @@
         <v>902225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="H28" s="7">
         <v>639</v>
@@ -6760,13 +6736,13 @@
         <v>742021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="M28" s="7">
         <v>1542</v>
@@ -6775,13 +6751,13 @@
         <v>1644246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6796,13 +6772,13 @@
         <v>1044091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>1640</v>
@@ -6811,28 +6787,28 @@
         <v>1716255</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>2621</v>
       </c>
       <c r="N29" s="7">
-        <v>2760347</v>
+        <v>2760346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6874,7 +6850,7 @@
         <v>4163</v>
       </c>
       <c r="N30" s="7">
-        <v>4404593</v>
+        <v>4404592</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6912,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811C45A9-6692-44DD-8106-94AA4768B0AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F743D3-D113-4717-BC8C-DC9B556E2998}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6929,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7036,13 +7012,13 @@
         <v>22205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7051,13 +7027,13 @@
         <v>30373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -7066,13 +7042,13 @@
         <v>52578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7063,13 @@
         <v>73953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -7102,13 +7078,13 @@
         <v>106140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -7117,13 +7093,13 @@
         <v>180093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,13 +7167,13 @@
         <v>143083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>205</v>
+        <v>489</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -7206,13 +7182,13 @@
         <v>132851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="M7" s="7">
         <v>335</v>
@@ -7221,13 +7197,13 @@
         <v>275934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,13 +7218,13 @@
         <v>126101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>213</v>
+        <v>498</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
@@ -7257,13 +7233,13 @@
         <v>235254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="M8" s="7">
         <v>369</v>
@@ -7272,13 +7248,13 @@
         <v>361354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,13 +7322,13 @@
         <v>96513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -7361,13 +7337,13 @@
         <v>90685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -7376,13 +7352,13 @@
         <v>187197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,13 +7373,13 @@
         <v>73546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -7412,13 +7388,13 @@
         <v>152917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -7427,13 +7403,13 @@
         <v>226464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,13 +7477,13 @@
         <v>83280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>81</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7516,13 +7492,13 @@
         <v>86157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>134</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -7531,13 +7507,13 @@
         <v>169436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,13 +7528,13 @@
         <v>64213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7567,13 +7543,13 @@
         <v>144815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>144</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>266</v>
@@ -7582,13 +7558,13 @@
         <v>209028</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>421</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7632,13 @@
         <v>34487</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
@@ -7671,13 +7647,13 @@
         <v>45815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>548</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
@@ -7686,13 +7662,13 @@
         <v>80302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7683,13 @@
         <v>37234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -7722,13 +7698,13 @@
         <v>66612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>285</v>
+        <v>555</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -7737,13 +7713,13 @@
         <v>103846</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>560</v>
+        <v>395</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7787,13 @@
         <v>83818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
@@ -7826,13 +7802,13 @@
         <v>64277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>567</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
@@ -7841,13 +7817,13 @@
         <v>148095</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>569</v>
+        <v>187</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7838,13 @@
         <v>54736</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -7877,13 +7853,13 @@
         <v>118400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>577</v>
+        <v>327</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -7892,13 +7868,13 @@
         <v>173136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>578</v>
+        <v>193</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,13 +7942,13 @@
         <v>167012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>248</v>
@@ -7981,13 +7957,13 @@
         <v>268076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -7996,13 +7972,13 @@
         <v>435089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +7993,13 @@
         <v>123705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>257</v>
@@ -8032,13 +8008,13 @@
         <v>203397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -8047,13 +8023,13 @@
         <v>327101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,13 +8097,13 @@
         <v>234671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>310</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -8136,13 +8112,13 @@
         <v>210106</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
@@ -8151,13 +8127,13 @@
         <v>444777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,13 +8148,13 @@
         <v>115442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>598</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
@@ -8187,10 +8163,10 @@
         <v>325355</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>608</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>142</v>
@@ -8202,13 +8178,13 @@
         <v>440797</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,13 +8252,13 @@
         <v>865069</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>560</v>
+        <v>395</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="H28" s="7">
         <v>1433</v>
@@ -8291,13 +8267,13 @@
         <v>928340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
@@ -8306,13 +8282,13 @@
         <v>1793409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,13 +8303,13 @@
         <v>668929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>553</v>
+        <v>388</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>1869</v>
@@ -8342,13 +8318,13 @@
         <v>1352890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="M29" s="7">
         <v>2423</v>
@@ -8357,13 +8333,13 @@
         <v>2021819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P62-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2340F995-5A15-431A-87B9-8367D96EDCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78E29EA-2097-402B-B1B4-9962A7BE1DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{93FD1E2E-141D-4112-A00A-DF33346BC1DB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADBA7DB-E024-4A44-A48A-3A1A25EF6D90}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
   </si>
   <si>
     <t>24,58%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>50,95%</t>
   </si>
   <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
   </si>
   <si>
     <t>75,42%</t>
   </si>
   <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1768 +140,1786 @@
     <t>55,57%</t>
   </si>
   <si>
-    <t>48,81%</t>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>72,4%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>58,15%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>56,64%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>66,07%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>51,6%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>60,6%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>62,77%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>67,78%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>62,7%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>62,34%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>68,88%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>40,93%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>59,07%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>58,31%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
   </si>
   <si>
     <t>46,5%</t>
   </si>
   <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>67,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>55,29%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>59,81%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>61,16%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>58,08%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>63,15%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>41,68%</t>
-  </si>
-  <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>58,32%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>55,77%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>60,66%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>48,9%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>66,07%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>58,52%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>43,71%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>53,38%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>38,74%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>51,42%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,31%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>48,35%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>53,66%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>47,01%</t>
   </si>
   <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>59,31%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
   </si>
   <si>
     <t>52,99%</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
+    <t>47,34%</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F301FF-1F6E-41FB-861E-88A7CAA7E1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35FAB83-80A7-4712-86B5-E5290C014786}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3209,7 +3227,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>63214</v>
+        <v>63215</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3311,7 +3329,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="7">
-        <v>113733</v>
+        <v>113734</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3385,10 +3403,10 @@
         <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>262</v>
@@ -3397,13 +3415,13 @@
         <v>261755</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3436,13 @@
         <v>135438</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>336</v>
@@ -3433,13 +3451,13 @@
         <v>337671</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="M23" s="7">
         <v>470</v>
@@ -3448,13 +3466,13 @@
         <v>473109</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3528,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3522,13 +3540,13 @@
         <v>168143</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -3537,13 +3555,13 @@
         <v>128654</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>290</v>
@@ -3552,13 +3570,13 @@
         <v>296797</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3591,13 @@
         <v>105018</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>396</v>
@@ -3588,13 +3606,13 @@
         <v>414334</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>504</v>
@@ -3603,13 +3621,13 @@
         <v>519352</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3695,13 @@
         <v>741679</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>558</v>
@@ -3692,13 +3710,13 @@
         <v>578130</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1318</v>
@@ -3707,13 +3725,13 @@
         <v>1319809</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +3746,13 @@
         <v>617664</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1750</v>
@@ -3743,13 +3761,13 @@
         <v>1768410</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>2368</v>
@@ -3758,13 +3776,13 @@
         <v>2386075</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,7 +3838,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC899B2-32A5-4337-93B5-EADD7EEA6871}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4908EDF8-06DC-466E-AFA2-EAD05A901014}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3879,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3984,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4029,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4074,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4123,13 @@
         <v>132346</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -4120,13 +4138,13 @@
         <v>89844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>198</v>
@@ -4135,13 +4153,13 @@
         <v>222190</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4171,13 +4189,13 @@
         <v>303741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -4186,13 +4204,13 @@
         <v>500670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4278,13 @@
         <v>82244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -4275,13 +4293,13 @@
         <v>75561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -4290,13 +4308,13 @@
         <v>157805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4329,13 @@
         <v>97654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -4326,13 +4344,13 @@
         <v>181042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4341,13 +4359,13 @@
         <v>278696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4433,13 @@
         <v>178464</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>160</v>
@@ -4430,13 +4448,13 @@
         <v>170690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>323</v>
@@ -4445,13 +4463,13 @@
         <v>349155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4484,13 @@
         <v>216902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>276</v>
@@ -4481,13 +4499,13 @@
         <v>297965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>482</v>
@@ -4496,13 +4514,13 @@
         <v>514867</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4588,13 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4585,13 +4603,13 @@
         <v>47020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4600,13 +4618,13 @@
         <v>96973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4639,13 @@
         <v>79308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4636,13 +4654,13 @@
         <v>115860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -4651,13 +4669,13 @@
         <v>195169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4743,13 @@
         <v>74321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4740,13 +4758,13 @@
         <v>60108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4755,13 +4773,13 @@
         <v>134429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4794,13 @@
         <v>80357</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4791,13 +4809,13 @@
         <v>164631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -4806,13 +4824,13 @@
         <v>244988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4898,13 @@
         <v>160207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
@@ -4895,13 +4913,13 @@
         <v>150141</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>186</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -4910,13 +4928,13 @@
         <v>310349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4949,13 @@
         <v>221977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4946,13 +4964,13 @@
         <v>356693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>194</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -4961,13 +4979,13 @@
         <v>578670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,7 +5041,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5035,13 +5053,13 @@
         <v>194684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -5050,13 +5068,13 @@
         <v>154854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -5065,13 +5083,13 @@
         <v>349537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5104,13 @@
         <v>216066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>376</v>
@@ -5101,13 +5119,13 @@
         <v>405388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="M26" s="7">
         <v>579</v>
@@ -5116,13 +5134,13 @@
         <v>621455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5208,13 @@
         <v>872220</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>689</v>
@@ -5205,13 +5223,13 @@
         <v>748218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1476</v>
@@ -5220,13 +5238,13 @@
         <v>1620438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>306</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5259,13 @@
         <v>1109193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>1699</v>
@@ -5256,13 +5274,13 @@
         <v>1825320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>2764</v>
@@ -5271,13 +5289,13 @@
         <v>2934514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5351,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71945B7-5F80-487F-AC65-ED2CA4F31AFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19E168A-6A11-4DC9-90BA-F22660014CA0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5392,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5499,13 @@
         <v>59244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -5496,13 +5514,13 @@
         <v>54975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -5511,13 +5529,13 @@
         <v>114219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5550,13 @@
         <v>97557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5547,13 +5565,13 @@
         <v>128214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -5562,13 +5580,13 @@
         <v>225771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5654,13 @@
         <v>148570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5651,13 +5669,13 @@
         <v>92618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5666,13 +5684,13 @@
         <v>241188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5705,13 @@
         <v>178895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -5702,13 +5720,13 @@
         <v>315547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -5717,13 +5735,13 @@
         <v>494442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5791,13 +5809,13 @@
         <v>89941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5806,13 +5824,13 @@
         <v>79895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>134</v>
       </c>
       <c r="M10" s="7">
         <v>167</v>
@@ -5821,13 +5839,13 @@
         <v>169837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5860,13 @@
         <v>96039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -5857,13 +5875,13 @@
         <v>165859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -5872,13 +5890,13 @@
         <v>261897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5964,13 @@
         <v>96554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>366</v>
+        <v>202</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5961,13 +5979,13 @@
         <v>81420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -5976,13 +5994,13 @@
         <v>177974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6015,13 @@
         <v>155432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6012,13 +6030,13 @@
         <v>217908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -6027,13 +6045,13 @@
         <v>373340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6119,13 @@
         <v>66718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>228</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -6116,13 +6134,13 @@
         <v>57197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -6131,13 +6149,13 @@
         <v>123915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6170,13 @@
         <v>63573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>218</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6167,13 +6185,13 @@
         <v>104973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6182,13 +6200,13 @@
         <v>168546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6274,13 @@
         <v>73938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -6271,13 +6289,13 @@
         <v>44294</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -6286,13 +6304,13 @@
         <v>118232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6325,13 @@
         <v>81683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -6322,13 +6340,13 @@
         <v>148587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -6337,13 +6355,13 @@
         <v>230269</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6429,13 @@
         <v>153678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -6426,13 +6444,13 @@
         <v>152699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>422</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M22" s="7">
         <v>273</v>
@@ -6441,13 +6459,13 @@
         <v>306376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6480,13 @@
         <v>139546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -6477,13 +6495,13 @@
         <v>244320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>432</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>354</v>
@@ -6492,13 +6510,13 @@
         <v>383866</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6554,7 +6572,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6566,13 +6584,13 @@
         <v>213582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6581,13 +6599,13 @@
         <v>178924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>441</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -6596,13 +6614,13 @@
         <v>392506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6635,13 @@
         <v>231367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -6632,13 +6650,13 @@
         <v>390847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -6647,13 +6665,13 @@
         <v>622214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,13 +6739,13 @@
         <v>902225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>639</v>
@@ -6736,13 +6754,13 @@
         <v>742021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M28" s="7">
         <v>1542</v>
@@ -6751,13 +6769,13 @@
         <v>1644246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6790,13 @@
         <v>1044091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>1640</v>
@@ -6787,13 +6805,13 @@
         <v>1716255</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>2621</v>
@@ -6802,13 +6820,13 @@
         <v>2760346</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6882,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F743D3-D113-4717-BC8C-DC9B556E2998}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF31842-B574-4533-ADA0-86DB6B84387F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6923,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7030,13 @@
         <v>22205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
@@ -7027,13 +7045,13 @@
         <v>30373</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>55</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
@@ -7042,13 +7060,13 @@
         <v>52578</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7081,13 @@
         <v>73953</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
@@ -7078,13 +7096,13 @@
         <v>106140</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>65</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
@@ -7093,13 +7111,13 @@
         <v>180093</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7185,13 @@
         <v>143083</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
@@ -7182,13 +7200,13 @@
         <v>132851</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M7" s="7">
         <v>335</v>
@@ -7197,13 +7215,13 @@
         <v>275934</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7236,13 @@
         <v>126101</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
@@ -7233,13 +7251,13 @@
         <v>235254</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>369</v>
@@ -7248,13 +7266,13 @@
         <v>361354</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7340,13 @@
         <v>96513</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
@@ -7337,13 +7355,13 @@
         <v>90685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
@@ -7352,13 +7370,13 @@
         <v>187197</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7391,13 @@
         <v>73546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
@@ -7388,13 +7406,13 @@
         <v>152917</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -7403,13 +7421,13 @@
         <v>226464</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7495,13 @@
         <v>83280</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
@@ -7492,13 +7510,13 @@
         <v>86157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -7507,13 +7525,13 @@
         <v>169436</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7546,13 @@
         <v>64213</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -7543,13 +7561,13 @@
         <v>144815</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>367</v>
       </c>
       <c r="M14" s="7">
         <v>266</v>
@@ -7662,13 +7680,13 @@
         <v>80302</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>549</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7701,13 @@
         <v>37234</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
@@ -7698,13 +7716,13 @@
         <v>66612</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
@@ -7713,13 +7731,13 @@
         <v>103846</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>395</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7805,13 @@
         <v>83818</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>542</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
@@ -7802,13 +7820,13 @@
         <v>64277</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>319</v>
+        <v>564</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
@@ -7817,13 +7835,13 @@
         <v>148095</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>187</v>
+        <v>566</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7856,13 @@
         <v>54736</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>533</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
@@ -7853,13 +7871,13 @@
         <v>118400</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>573</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
@@ -7868,13 +7886,13 @@
         <v>173136</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>193</v>
+        <v>574</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,13 +7960,13 @@
         <v>167012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="H22" s="7">
         <v>248</v>
@@ -7957,13 +7975,13 @@
         <v>268076</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
@@ -7972,13 +7990,13 @@
         <v>435089</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8011,13 @@
         <v>123705</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>257</v>
@@ -8008,13 +8026,13 @@
         <v>203397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
@@ -8023,13 +8041,13 @@
         <v>327101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8085,7 +8103,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8097,13 +8115,13 @@
         <v>234671</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
@@ -8112,13 +8130,13 @@
         <v>210106</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
@@ -8127,13 +8145,13 @@
         <v>444777</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8166,13 @@
         <v>115442</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
@@ -8163,13 +8181,13 @@
         <v>325355</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>142</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>452</v>
@@ -8178,13 +8196,13 @@
         <v>440797</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8270,13 @@
         <v>865069</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>395</v>
+        <v>558</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="H28" s="7">
         <v>1433</v>
@@ -8267,13 +8285,13 @@
         <v>928340</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
@@ -8282,13 +8300,13 @@
         <v>1793409</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>611</v>
+        <v>532</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8321,13 @@
         <v>668929</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>388</v>
+        <v>549</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
       <c r="H29" s="7">
         <v>1869</v>
@@ -8318,13 +8336,13 @@
         <v>1352890</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="M29" s="7">
         <v>2423</v>
@@ -8333,13 +8351,13 @@
         <v>2021819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>626</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>540</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8413,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P62-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P62-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D78E29EA-2097-402B-B1B4-9962A7BE1DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DCE3E98-348A-4E84-8599-96DBFD323AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5ADBA7DB-E024-4A44-A48A-3A1A25EF6D90}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EC58776-1D99-492F-97C5-1B86EF971A88}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="632">
   <si>
     <t>Población según si percibe alguna pensión en 2007 (Tasa respuesta: 56,61%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población según si percibe alguna pensión en 2012 (Tasa respuesta: 65,16%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>59,18%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
   </si>
   <si>
     <t>40,19%</t>
@@ -698,58 +749,58 @@
     <t>68,1%</t>
   </si>
   <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>68,18%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
   </si>
   <si>
     <t>38,65%</t>
@@ -1007,9 +1058,6 @@
     <t>Población según si percibe alguna pensión en 2016 (Tasa respuesta: 63,37%)</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
     <t>29,41%</t>
   </si>
   <si>
@@ -1031,9 +1079,6 @@
     <t>28,47%</t>
   </si>
   <si>
-    <t>62,22%</t>
-  </si>
-  <si>
     <t>54,42%</t>
   </si>
   <si>
@@ -1079,9 +1124,6 @@
     <t>29,46%</t>
   </si>
   <si>
-    <t>36,6%</t>
-  </si>
-  <si>
     <t>54,63%</t>
   </si>
   <si>
@@ -1103,9 +1145,6 @@
     <t>67,21%</t>
   </si>
   <si>
-    <t>63,4%</t>
-  </si>
-  <si>
     <t>70,54%</t>
   </si>
   <si>
@@ -1115,9 +1154,6 @@
     <t>41,34%</t>
   </si>
   <si>
-    <t>55,52%</t>
-  </si>
-  <si>
     <t>32,51%</t>
   </si>
   <si>
@@ -1136,9 +1172,6 @@
     <t>51,64%</t>
   </si>
   <si>
-    <t>44,48%</t>
-  </si>
-  <si>
     <t>58,66%</t>
   </si>
   <si>
@@ -1466,460 +1499,442 @@
     <t>Población según si percibe alguna pensión en 2023 (Tasa respuesta: 57,09%)</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>68,19%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>47,33%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>67,78%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>62,7%</t>
-  </si>
-  <si>
-    <t>57,29%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>50,45%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>58,31%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,5%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>57,95%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>46,56%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>54,98%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>49,48%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
   </si>
   <si>
     <t>59,16%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>40,84%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>55,91%</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35FAB83-80A7-4712-86B5-E5290C014786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48A86C5-E979-4BA0-A3F7-7496B352C358}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2947,7 +2962,7 @@
         <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>134831</v>
+        <v>134830</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -3049,7 +3064,7 @@
         <v>389</v>
       </c>
       <c r="N15" s="7">
-        <v>369516</v>
+        <v>369515</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3227,7 +3242,7 @@
         <v>65</v>
       </c>
       <c r="D19" s="7">
-        <v>63215</v>
+        <v>63214</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -3329,7 +3344,7 @@
         <v>115</v>
       </c>
       <c r="D21" s="7">
-        <v>113734</v>
+        <v>113733</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3758,7 +3773,7 @@
         <v>1750</v>
       </c>
       <c r="I29" s="7">
-        <v>1768410</v>
+        <v>1768411</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3773,7 +3788,7 @@
         <v>2368</v>
       </c>
       <c r="N29" s="7">
-        <v>2386075</v>
+        <v>2386074</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>177</v>
@@ -3809,7 +3824,7 @@
         <v>2308</v>
       </c>
       <c r="I30" s="7">
-        <v>2346540</v>
+        <v>2346541</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3824,7 +3839,7 @@
         <v>3686</v>
       </c>
       <c r="N30" s="7">
-        <v>3705884</v>
+        <v>3705883</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3862,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4908EDF8-06DC-466E-AFA2-EAD05A901014}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7DA160-3FB7-4C5F-A8D9-94EC434B0E65}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3980,43 +3995,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>70</v>
+      </c>
+      <c r="D4" s="7">
+        <v>76083</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>63</v>
+      </c>
+      <c r="I4" s="7">
+        <v>68813</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>133</v>
+      </c>
+      <c r="N4" s="7">
+        <v>144896</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,43 +4046,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D5" s="7">
+        <v>90866</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="I5" s="7">
+        <v>119216</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>192</v>
+      </c>
+      <c r="N5" s="7">
+        <v>210082</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,43 +4097,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>159</v>
+      </c>
+      <c r="D6" s="7">
+        <v>166949</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="I6" s="7">
+        <v>188029</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>325</v>
+      </c>
+      <c r="N6" s="7">
+        <v>354978</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4156,13 @@
         <v>132346</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -4138,13 +4171,13 @@
         <v>89844</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>198</v>
@@ -4153,13 +4186,13 @@
         <v>222190</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4207,13 @@
         <v>196928</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>281</v>
@@ -4189,13 +4222,13 @@
         <v>303741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>472</v>
@@ -4204,13 +4237,13 @@
         <v>500670</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4311,13 @@
         <v>82244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -4293,13 +4326,13 @@
         <v>75561</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="M10" s="7">
         <v>146</v>
@@ -4308,13 +4341,13 @@
         <v>157805</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4329,13 +4362,13 @@
         <v>97654</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H11" s="7">
         <v>167</v>
@@ -4344,13 +4377,13 @@
         <v>181042</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="M11" s="7">
         <v>264</v>
@@ -4359,13 +4392,13 @@
         <v>278696</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,49 +4460,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>178464</v>
+        <v>102381</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="H13" s="7">
-        <v>160</v>
+        <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>170690</v>
+        <v>101877</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="M13" s="7">
-        <v>323</v>
+        <v>190</v>
       </c>
       <c r="N13" s="7">
-        <v>349155</v>
+        <v>204258</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,49 +4511,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>216902</v>
+        <v>126036</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>276</v>
+        <v>173</v>
       </c>
       <c r="I14" s="7">
-        <v>297965</v>
+        <v>178749</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="M14" s="7">
-        <v>482</v>
+        <v>290</v>
       </c>
       <c r="N14" s="7">
-        <v>514867</v>
+        <v>304785</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>369</v>
+        <v>210</v>
       </c>
       <c r="D15" s="7">
-        <v>395366</v>
+        <v>228417</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4544,10 +4577,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>436</v>
+        <v>270</v>
       </c>
       <c r="I15" s="7">
-        <v>468655</v>
+        <v>280626</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4559,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>805</v>
+        <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>864022</v>
+        <v>509043</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4588,13 +4621,13 @@
         <v>49954</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7">
         <v>45</v>
@@ -4603,13 +4636,13 @@
         <v>47020</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="M16" s="7">
         <v>90</v>
@@ -4618,13 +4651,13 @@
         <v>96973</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4672,13 @@
         <v>79308</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -4654,13 +4687,13 @@
         <v>115860</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>187</v>
@@ -4669,13 +4702,13 @@
         <v>195169</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,10 +4779,10 @@
         <v>33</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -4758,13 +4791,13 @@
         <v>60108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -4773,13 +4806,13 @@
         <v>134429</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4797,10 +4830,10 @@
         <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>158</v>
@@ -4809,13 +4842,13 @@
         <v>164631</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="M20" s="7">
         <v>238</v>
@@ -4824,13 +4857,13 @@
         <v>244988</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,28 +4931,28 @@
         <v>160207</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>132</v>
       </c>
       <c r="I22" s="7">
-        <v>150141</v>
+        <v>150142</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>276</v>
@@ -4928,13 +4961,13 @@
         <v>310349</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4982,13 @@
         <v>221977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="H23" s="7">
         <v>329</v>
@@ -4964,13 +4997,13 @@
         <v>356693</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>542</v>
@@ -4979,13 +5012,13 @@
         <v>578670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5012,7 +5045,7 @@
         <v>461</v>
       </c>
       <c r="I24" s="7">
-        <v>506834</v>
+        <v>506835</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5053,13 +5086,13 @@
         <v>194684</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>142</v>
@@ -5068,13 +5101,13 @@
         <v>154854</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>313</v>
@@ -5083,10 +5116,10 @@
         <v>349537</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>134</v>
@@ -5104,13 +5137,13 @@
         <v>216066</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>376</v>
@@ -5119,13 +5152,13 @@
         <v>405388</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>579</v>
@@ -5134,13 +5167,13 @@
         <v>621455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5241,13 @@
         <v>872220</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H28" s="7">
         <v>689</v>
@@ -5223,13 +5256,13 @@
         <v>748218</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>1476</v>
@@ -5238,13 +5271,13 @@
         <v>1620438</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5292,13 @@
         <v>1109193</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>1699</v>
@@ -5274,13 +5307,13 @@
         <v>1825320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>2764</v>
@@ -5289,10 +5322,10 @@
         <v>2934514</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>179</v>
@@ -5375,7 +5408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C19E168A-6A11-4DC9-90BA-F22660014CA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43370F93-D774-4A3A-92AD-CCAE8618193A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5392,7 +5425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5499,13 +5532,13 @@
         <v>59244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
         <v>50</v>
@@ -5514,13 +5547,13 @@
         <v>54975</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
         <v>109</v>
@@ -5529,10 +5562,10 @@
         <v>114219</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>134</v>
@@ -5550,13 +5583,13 @@
         <v>97557</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>193</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>125</v>
@@ -5565,13 +5598,13 @@
         <v>128214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -5580,13 +5613,13 @@
         <v>225771</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5654,13 +5687,13 @@
         <v>148570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>78</v>
@@ -5669,13 +5702,13 @@
         <v>92618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>224</v>
@@ -5684,13 +5717,13 @@
         <v>241188</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,13 +5738,13 @@
         <v>178895</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H8" s="7">
         <v>296</v>
@@ -5720,13 +5753,13 @@
         <v>315547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="M8" s="7">
         <v>464</v>
@@ -5735,13 +5768,13 @@
         <v>494442</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,13 +5842,13 @@
         <v>89941</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>252</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -5824,10 +5857,10 @@
         <v>79895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>134</v>
@@ -5839,13 +5872,13 @@
         <v>169837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,13 +5893,13 @@
         <v>96039</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>365</v>
+        <v>244</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="H11" s="7">
         <v>169</v>
@@ -5875,13 +5908,13 @@
         <v>165859</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>141</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
@@ -5890,13 +5923,13 @@
         <v>261897</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,13 +5997,13 @@
         <v>96554</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5979,13 +6012,13 @@
         <v>81420</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>169</v>
@@ -5994,13 +6027,13 @@
         <v>177974</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,13 +6048,13 @@
         <v>155432</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -6030,13 +6063,13 @@
         <v>217908</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="M14" s="7">
         <v>350</v>
@@ -6045,13 +6078,13 @@
         <v>373340</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6152,13 @@
         <v>66718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -6134,13 +6167,13 @@
         <v>57197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="M16" s="7">
         <v>123</v>
@@ -6149,13 +6182,13 @@
         <v>123915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,13 +6203,13 @@
         <v>63573</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6185,13 +6218,13 @@
         <v>104973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="M17" s="7">
         <v>173</v>
@@ -6200,13 +6233,13 @@
         <v>168546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6307,13 @@
         <v>73938</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>38</v>
@@ -6289,13 +6322,13 @@
         <v>44294</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>115</v>
@@ -6304,13 +6337,13 @@
         <v>118232</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6358,13 @@
         <v>81683</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="H20" s="7">
         <v>144</v>
@@ -6340,13 +6373,13 @@
         <v>148587</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="M20" s="7">
         <v>223</v>
@@ -6355,13 +6388,13 @@
         <v>230269</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,13 +6462,13 @@
         <v>153678</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>130</v>
@@ -6444,13 +6477,13 @@
         <v>152699</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="M22" s="7">
         <v>273</v>
@@ -6462,10 +6495,10 @@
         <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,13 +6513,13 @@
         <v>139546</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>233</v>
@@ -6495,10 +6528,10 @@
         <v>244320</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>64</v>
@@ -6507,16 +6540,16 @@
         <v>354</v>
       </c>
       <c r="N23" s="7">
-        <v>383866</v>
+        <v>383867</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6558,7 +6591,7 @@
         <v>627</v>
       </c>
       <c r="N24" s="7">
-        <v>690242</v>
+        <v>690243</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -6584,13 +6617,13 @@
         <v>213582</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>150</v>
@@ -6599,13 +6632,13 @@
         <v>178924</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="M25" s="7">
         <v>362</v>
@@ -6614,13 +6647,13 @@
         <v>392506</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,13 +6668,13 @@
         <v>231367</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="H26" s="7">
         <v>359</v>
@@ -6650,13 +6683,13 @@
         <v>390847</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="M26" s="7">
         <v>577</v>
@@ -6665,13 +6698,13 @@
         <v>622214</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6739,13 +6772,13 @@
         <v>902225</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="H28" s="7">
         <v>639</v>
@@ -6754,13 +6787,13 @@
         <v>742021</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="M28" s="7">
         <v>1542</v>
@@ -6769,13 +6802,13 @@
         <v>1644246</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6823,13 @@
         <v>1044091</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="H29" s="7">
         <v>1640</v>
@@ -6805,28 +6838,28 @@
         <v>1716255</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
       <c r="M29" s="7">
         <v>2621</v>
       </c>
       <c r="N29" s="7">
-        <v>2760346</v>
+        <v>2760347</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>484</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,7 +6901,7 @@
         <v>4163</v>
       </c>
       <c r="N30" s="7">
-        <v>4404592</v>
+        <v>4404593</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6906,7 +6939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF31842-B574-4533-ADA0-86DB6B84387F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D64E822-CB43-4DBA-BD2C-7D8CF278CF15}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6923,7 +6956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>485</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7027,46 +7060,46 @@
         <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>22205</v>
+        <v>24245</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>487</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="H4" s="7">
         <v>62</v>
       </c>
       <c r="I4" s="7">
-        <v>30373</v>
+        <v>31304</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>55</v>
+        <v>489</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>479</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>96</v>
       </c>
       <c r="N4" s="7">
-        <v>52578</v>
+        <v>55549</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7078,46 +7111,46 @@
         <v>94</v>
       </c>
       <c r="D5" s="7">
-        <v>73953</v>
+        <v>91641</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="H5" s="7">
         <v>219</v>
       </c>
       <c r="I5" s="7">
-        <v>106140</v>
+        <v>113998</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>65</v>
+        <v>497</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>486</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="M5" s="7">
         <v>313</v>
       </c>
       <c r="N5" s="7">
-        <v>180093</v>
+        <v>205640</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,7 +7162,7 @@
         <v>128</v>
       </c>
       <c r="D6" s="7">
-        <v>96158</v>
+        <v>115886</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7144,7 +7177,7 @@
         <v>281</v>
       </c>
       <c r="I6" s="7">
-        <v>136513</v>
+        <v>145302</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7159,7 +7192,7 @@
         <v>409</v>
       </c>
       <c r="N6" s="7">
-        <v>232671</v>
+        <v>261189</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7182,46 +7215,46 @@
         <v>138</v>
       </c>
       <c r="D7" s="7">
-        <v>143083</v>
+        <v>134827</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="H7" s="7">
         <v>197</v>
       </c>
       <c r="I7" s="7">
-        <v>132851</v>
+        <v>122029</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="M7" s="7">
         <v>335</v>
       </c>
       <c r="N7" s="7">
-        <v>275934</v>
+        <v>256856</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7233,46 +7266,46 @@
         <v>69</v>
       </c>
       <c r="D8" s="7">
-        <v>126101</v>
+        <v>134177</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
       </c>
       <c r="I8" s="7">
-        <v>235254</v>
+        <v>218828</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="M8" s="7">
         <v>369</v>
       </c>
       <c r="N8" s="7">
-        <v>361354</v>
+        <v>353005</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>331</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7284,7 +7317,7 @@
         <v>207</v>
       </c>
       <c r="D9" s="7">
-        <v>269184</v>
+        <v>269004</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7299,7 +7332,7 @@
         <v>497</v>
       </c>
       <c r="I9" s="7">
-        <v>368105</v>
+        <v>340857</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7314,7 +7347,7 @@
         <v>704</v>
       </c>
       <c r="N9" s="7">
-        <v>637288</v>
+        <v>609861</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7337,46 +7370,46 @@
         <v>142</v>
       </c>
       <c r="D10" s="7">
-        <v>96513</v>
+        <v>91782</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="H10" s="7">
         <v>161</v>
       </c>
       <c r="I10" s="7">
-        <v>90685</v>
+        <v>83726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="M10" s="7">
         <v>303</v>
       </c>
       <c r="N10" s="7">
-        <v>187197</v>
+        <v>175507</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7388,46 +7421,46 @@
         <v>65</v>
       </c>
       <c r="D11" s="7">
-        <v>73546</v>
+        <v>74609</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="H11" s="7">
         <v>204</v>
       </c>
       <c r="I11" s="7">
-        <v>152917</v>
+        <v>143350</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M11" s="7">
         <v>269</v>
       </c>
       <c r="N11" s="7">
-        <v>226464</v>
+        <v>217960</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7439,7 +7472,7 @@
         <v>207</v>
       </c>
       <c r="D12" s="7">
-        <v>170059</v>
+        <v>166391</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7454,7 +7487,7 @@
         <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>243602</v>
+        <v>227076</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7469,7 +7502,7 @@
         <v>572</v>
       </c>
       <c r="N12" s="7">
-        <v>413661</v>
+        <v>393467</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7492,46 +7525,46 @@
         <v>104</v>
       </c>
       <c r="D13" s="7">
-        <v>83280</v>
+        <v>79018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="H13" s="7">
         <v>186</v>
       </c>
       <c r="I13" s="7">
-        <v>86157</v>
+        <v>80696</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>359</v>
+        <v>536</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
       </c>
       <c r="N13" s="7">
-        <v>169436</v>
+        <v>159713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7543,46 +7576,46 @@
         <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>64213</v>
+        <v>64713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
       </c>
       <c r="I14" s="7">
-        <v>144815</v>
+        <v>134312</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>367</v>
+        <v>546</v>
       </c>
       <c r="M14" s="7">
         <v>266</v>
       </c>
       <c r="N14" s="7">
-        <v>209028</v>
+        <v>199025</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7594,7 +7627,7 @@
         <v>164</v>
       </c>
       <c r="D15" s="7">
-        <v>147493</v>
+        <v>143731</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7609,7 +7642,7 @@
         <v>392</v>
       </c>
       <c r="I15" s="7">
-        <v>230972</v>
+        <v>215008</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7624,7 +7657,7 @@
         <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>378464</v>
+        <v>358738</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7647,46 +7680,46 @@
         <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>34487</v>
+        <v>31396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="H16" s="7">
         <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>45815</v>
+        <v>41657</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="M16" s="7">
         <v>178</v>
       </c>
       <c r="N16" s="7">
-        <v>80302</v>
+        <v>73053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7698,46 +7731,46 @@
         <v>45</v>
       </c>
       <c r="D17" s="7">
-        <v>37234</v>
+        <v>33107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>552</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="H17" s="7">
         <v>134</v>
       </c>
       <c r="I17" s="7">
-        <v>66612</v>
+        <v>58764</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="M17" s="7">
         <v>179</v>
       </c>
       <c r="N17" s="7">
-        <v>103846</v>
+        <v>91871</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,7 +7782,7 @@
         <v>108</v>
       </c>
       <c r="D18" s="7">
-        <v>71721</v>
+        <v>64503</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7764,7 +7797,7 @@
         <v>249</v>
       </c>
       <c r="I18" s="7">
-        <v>112427</v>
+        <v>100421</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7779,7 +7812,7 @@
         <v>357</v>
       </c>
       <c r="N18" s="7">
-        <v>184148</v>
+        <v>164924</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7802,46 +7835,46 @@
         <v>157</v>
       </c>
       <c r="D19" s="7">
-        <v>83818</v>
+        <v>79936</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="H19" s="7">
         <v>154</v>
       </c>
       <c r="I19" s="7">
-        <v>64277</v>
+        <v>59936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="M19" s="7">
         <v>311</v>
       </c>
       <c r="N19" s="7">
-        <v>148095</v>
+        <v>139872</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,46 +7886,46 @@
         <v>59</v>
       </c>
       <c r="D20" s="7">
-        <v>54736</v>
+        <v>54639</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="H20" s="7">
         <v>177</v>
       </c>
       <c r="I20" s="7">
-        <v>118400</v>
+        <v>110718</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="M20" s="7">
         <v>236</v>
       </c>
       <c r="N20" s="7">
-        <v>173136</v>
+        <v>165357</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7904,7 +7937,7 @@
         <v>216</v>
       </c>
       <c r="D21" s="7">
-        <v>138554</v>
+        <v>134575</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7919,7 +7952,7 @@
         <v>331</v>
       </c>
       <c r="I21" s="7">
-        <v>182677</v>
+        <v>170654</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7934,7 +7967,7 @@
         <v>547</v>
       </c>
       <c r="N21" s="7">
-        <v>321231</v>
+        <v>305229</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7957,46 +7990,46 @@
         <v>202</v>
       </c>
       <c r="D22" s="7">
-        <v>167012</v>
+        <v>158673</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>248</v>
       </c>
       <c r="I22" s="7">
-        <v>268076</v>
+        <v>347820</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>450</v>
       </c>
       <c r="N22" s="7">
-        <v>435089</v>
+        <v>506493</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>464</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8008,46 +8041,46 @@
         <v>82</v>
       </c>
       <c r="D23" s="7">
-        <v>123705</v>
+        <v>130121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="H23" s="7">
         <v>257</v>
       </c>
       <c r="I23" s="7">
-        <v>203397</v>
+        <v>189410</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="M23" s="7">
         <v>339</v>
       </c>
       <c r="N23" s="7">
-        <v>327101</v>
+        <v>319531</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>455</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8059,7 +8092,7 @@
         <v>284</v>
       </c>
       <c r="D24" s="7">
-        <v>290717</v>
+        <v>288794</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8074,7 +8107,7 @@
         <v>505</v>
       </c>
       <c r="I24" s="7">
-        <v>471473</v>
+        <v>537230</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8089,7 +8122,7 @@
         <v>789</v>
       </c>
       <c r="N24" s="7">
-        <v>762190</v>
+        <v>826024</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8112,46 +8145,46 @@
         <v>295</v>
       </c>
       <c r="D25" s="7">
-        <v>234671</v>
+        <v>201594</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>310</v>
       </c>
       <c r="I25" s="7">
-        <v>210106</v>
+        <v>175796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>224</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>605</v>
       </c>
       <c r="N25" s="7">
-        <v>444777</v>
+        <v>377390</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8163,46 +8196,46 @@
         <v>80</v>
       </c>
       <c r="D26" s="7">
-        <v>115442</v>
+        <v>96049</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>372</v>
       </c>
       <c r="I26" s="7">
-        <v>325355</v>
+        <v>265760</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="M26" s="7">
         <v>452</v>
       </c>
       <c r="N26" s="7">
-        <v>440797</v>
+        <v>361809</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8214,7 +8247,7 @@
         <v>375</v>
       </c>
       <c r="D27" s="7">
-        <v>350113</v>
+        <v>297643</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8229,7 +8262,7 @@
         <v>682</v>
       </c>
       <c r="I27" s="7">
-        <v>535461</v>
+        <v>441556</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8244,7 +8277,7 @@
         <v>1057</v>
       </c>
       <c r="N27" s="7">
-        <v>885574</v>
+        <v>739199</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8267,46 +8300,46 @@
         <v>1135</v>
       </c>
       <c r="D28" s="7">
-        <v>865069</v>
+        <v>801470</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>558</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>1433</v>
       </c>
       <c r="I28" s="7">
-        <v>928340</v>
+        <v>942962</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="M28" s="7">
         <v>2568</v>
       </c>
       <c r="N28" s="7">
-        <v>1793409</v>
+        <v>1744432</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>532</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8318,46 +8351,46 @@
         <v>554</v>
       </c>
       <c r="D29" s="7">
-        <v>668929</v>
+        <v>679057</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>549</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>1869</v>
       </c>
       <c r="I29" s="7">
-        <v>1352890</v>
+        <v>1235141</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>2423</v>
       </c>
       <c r="N29" s="7">
-        <v>2021819</v>
+        <v>1914198</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>540</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8369,7 +8402,7 @@
         <v>1689</v>
       </c>
       <c r="D30" s="7">
-        <v>1533998</v>
+        <v>1480527</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8384,7 +8417,7 @@
         <v>3302</v>
       </c>
       <c r="I30" s="7">
-        <v>2281230</v>
+        <v>2178103</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8399,7 +8432,7 @@
         <v>4991</v>
       </c>
       <c r="N30" s="7">
-        <v>3815228</v>
+        <v>3658630</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
